--- a/import masses template.xlsx
+++ b/import masses template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.diluzio\Documents\Relative-LENA-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="15330" windowHeight="4680" tabRatio="730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="DATI" sheetId="13" r:id="rId1"/>
@@ -25,7 +30,7 @@
     <author>Marco Di Luzio</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,11 +50,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Data dello scram (giorno, mese, anno, ora, minuto). Rischiesto, ogni casella lasciata vuota è assunta uguale a 0</t>
+Data dello scram (giorno, mese, anno, ora, minuto). Richiesto, ogni casella lasciata vuota è assunta uguale a 0</t>
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0">
+    <comment ref="K8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0">
+    <comment ref="J12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0">
+    <comment ref="K12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0">
+    <comment ref="L12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0">
+    <comment ref="M12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,9 +502,6 @@
     <t>DETECTOR:</t>
   </si>
   <si>
-    <t>Versione Relative LENA 1.01</t>
-  </si>
-  <si>
     <t>TEMPO IRR (S):</t>
   </si>
   <si>
@@ -507,12 +509,15 @@
   </si>
   <si>
     <t>certificato</t>
+  </si>
+  <si>
+    <t>Versione Relative LENA 1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1089,6 +1094,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1136,7 +1144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,7 +1179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1383,7 +1391,9 @@
   <sheetPr codeName="Foglio5"/>
   <dimension ref="A2:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1394,7 +1404,7 @@
       <c r="A2" s="4"/>
       <c r="B2"/>
       <c r="K2" s="63" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L2" s="64"/>
     </row>
@@ -1502,12 +1512,12 @@
         <v>26</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1573,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
